--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2556829.574659892</v>
+        <v>2632359.244324697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.4950516443633</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>203.6337698749963</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16.915442650592</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>4.607334289833813</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>237.1972684446289</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>210.1990295646178</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>43.16288100277537</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481164</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>124.5928256234905</v>
       </c>
       <c r="V8" t="n">
-        <v>281.7423800959436</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>94.63926978364066</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.546296656423486</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>155.5402382479068</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>103.4415592848742</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>140.0424879565123</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1815,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>47.80352821253297</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274098</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.5543825108398</v>
+        <v>140.1042018712778</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>11.82150965373878</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.7053919670787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>122.6519788371614</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>186.7497962645299</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>225.4935394628982</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>179.5232416718493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>23.54872654977478</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.63559668982885</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498019</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.01233557466645</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>3.633341602776493</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>76.59100678919627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3554,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.7973062640922</v>
       </c>
       <c r="V40" t="n">
-        <v>181.6851090328747</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3793,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>165.1731834839383</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>50.64057307576873</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>270.6187738943028</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>121.4557673726582</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4366,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2105.366837563734</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.6741383092202</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C4" t="n">
-        <v>352.6741383092202</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D4" t="n">
-        <v>352.6741383092202</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E4" t="n">
-        <v>352.6741383092202</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>352.6741383092202</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>352.6741383092202</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.6741383092202</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.576038264087</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>1448.576038264087</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="D5" t="n">
-        <v>1090.310339657336</v>
+        <v>1248.680922802168</v>
       </c>
       <c r="E5" t="n">
-        <v>704.5220870590922</v>
+        <v>1248.680922802168</v>
       </c>
       <c r="F5" t="n">
-        <v>293.5361822694846</v>
+        <v>837.6950180125605</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036448</v>
+        <v>419.7312099107473</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500979</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500979</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500979</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239899</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264087</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414848</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>684.5301145066618</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>684.5301145066618</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>684.5301145066618</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>684.5301145066618</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>429.8456263007749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>429.8456263007749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4823,31 +4825,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="V8" t="n">
-        <v>2357.532138825542</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W8" t="n">
-        <v>2004.763483555427</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X8" t="n">
-        <v>1631.297725294347</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1241.158393318536</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.57560470564073</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="C10" t="n">
-        <v>62.57560470564073</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="D10" t="n">
-        <v>62.57560470564073</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="E10" t="n">
-        <v>62.57560470564073</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="F10" t="n">
-        <v>62.57560470564073</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>62.57560470564073</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>62.57560470564073</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>62.57560470564073</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406187</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406187</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036581</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X10" t="n">
-        <v>62.57560470564073</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.57560470564073</v>
+        <v>149.5382038240419</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,31 +5026,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.80491879234</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.815367894323</v>
+        <v>681.3817128053294</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.0227887507926</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5269,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.6741500022174</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C16" t="n">
-        <v>238.6741500022174</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D16" t="n">
-        <v>238.6741500022174</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>238.6741500022174</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>238.6741500022174</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1339.554774985856</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1339.554774985856</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1339.554774985856</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1339.554774985856</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324571</v>
+        <v>1050.137604948895</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324571</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324571</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,7 +5548,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.29497012173</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>3190.928350499667</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>3959.296496892129</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0280401273991</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0384892293818</v>
+        <v>985.713685310448</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>844.1942894808744</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.091576844583</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W22" t="n">
-        <v>4027.624275985003</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X22" t="n">
-        <v>4027.624275985003</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y22" t="n">
-        <v>3809.740041674822</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3263.786115209752</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3571.106248489713</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060205</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6205,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6242,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6412,22 +6414,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>960.1499050525547</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="W28" t="n">
-        <v>674.7185717878253</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="X28" t="n">
-        <v>446.729020889808</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,34 +6451,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>289.9398668627127</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="C31" t="n">
-        <v>121.0036839348058</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4822.838818782143</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4622.918808697696</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4399.133393487202</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>4110.00475470076</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>3855.320266494873</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>3855.320266494873</v>
       </c>
       <c r="X31" t="n">
-        <v>692.3809108364826</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="Y31" t="n">
-        <v>471.5883316929525</v>
+        <v>3627.330715596856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
         <v>1843.901542059518</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>268.3619233770512</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>268.3619233770512</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>268.3619233770512</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>268.3619233770512</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>121.4719758791408</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>121.4719758791408</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>670.8029673508211</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>450.0103882072909</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.8871334832924</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C37" t="n">
-        <v>100.8871334832924</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="D37" t="n">
-        <v>100.8871334832924</v>
+        <v>321.4716922806167</v>
       </c>
       <c r="E37" t="n">
-        <v>100.8871334832924</v>
+        <v>321.4716922806167</v>
       </c>
       <c r="F37" t="n">
-        <v>100.8871334832924</v>
+        <v>174.5817447827064</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>174.5817447827064</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>174.5817447827064</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7123,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>731.3177283550796</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>503.3281774570622</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y37" t="n">
-        <v>282.5355983135321</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7187,7 +7189,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.5481934947357</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5481934947357</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>395.5481934947357</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="V40" t="n">
-        <v>1315.395958403484</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="W40" t="n">
-        <v>1025.978788366523</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="X40" t="n">
-        <v>797.9892374685055</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y40" t="n">
-        <v>577.1966583249754</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7430,13 +7432,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7497,13 +7499,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3946.68490697682</v>
+        <v>4093.273485435009</v>
       </c>
       <c r="C43" t="n">
-        <v>3777.748724048913</v>
+        <v>3924.337302507102</v>
       </c>
       <c r="D43" t="n">
-        <v>3777.748724048913</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="E43" t="n">
-        <v>3777.748724048913</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F43" t="n">
-        <v>3777.748724048913</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368733</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
         <v>3459.155393916677</v>
@@ -7597,22 +7599,22 @@
         <v>4549.859459491671</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491671</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U43" t="n">
-        <v>4383.017860012946</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V43" t="n">
-        <v>4128.333371807059</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W43" t="n">
-        <v>4128.333371807059</v>
+        <v>4274.921950265249</v>
       </c>
       <c r="X43" t="n">
-        <v>4128.333371807059</v>
+        <v>4274.921950265249</v>
       </c>
       <c r="Y43" t="n">
-        <v>4128.333371807059</v>
+        <v>4274.921950265249</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="X46" t="n">
-        <v>797.6878684287846</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="Y46" t="n">
-        <v>576.8952892852544</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783507</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415585</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>52.4973336130526</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>158.8724419039315</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>52.49733361305243</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.1113620226424</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11078,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9827600886842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>115.1430940672206</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.45108050686531</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>150.1172817710703</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.03027084125497</v>
+        <v>78.48045148081695</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>136.7939633644736</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.879261385016065</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518758</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>31.8348570875649</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>60.7438129356791</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.06141168024547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>125.0667464684376</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>72.32875571396394</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>124.9014927928697</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>162.8602268606011</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>33.82823867507571</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>8.440046134485101</v>
       </c>
       <c r="V40" t="n">
-        <v>70.45253429095331</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>121.064168914639</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>235.8824252608223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>15.61857850427458</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>104.2538880163789</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="J2" t="n">
-        <v>586543.5896065633</v>
-      </c>
       <c r="K2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065629</v>
@@ -26350,10 +26352,10 @@
         <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865243</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26430,13 +26432,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26445,16 +26447,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26470,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26482,10 +26484,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662657</v>
+        <v>-222678.4976662656</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482791</v>
+        <v>367289.3815482788</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482791</v>
+        <v>367289.3815482786</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592027</v>
+        <v>-52778.38040592073</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709752</v>
+        <v>472381.6560709755</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709755</v>
+        <v>472381.6560709756</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709756</v>
+        <v>472381.6560709758</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709758</v>
+        <v>472381.6560709757</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783829</v>
+        <v>295958.4368783827</v>
       </c>
       <c r="K6" t="n">
-        <v>472381.6560709755</v>
+        <v>472381.6560709757</v>
       </c>
       <c r="L6" t="n">
-        <v>472381.6560709756</v>
+        <v>472381.6560709754</v>
       </c>
       <c r="M6" t="n">
-        <v>337580.6408371385</v>
+        <v>337580.6408371383</v>
       </c>
       <c r="N6" t="n">
         <v>472381.6560709757</v>
       </c>
       <c r="O6" t="n">
+        <v>472381.6560709756</v>
+      </c>
+      <c r="P6" t="n">
         <v>472381.6560709755</v>
-      </c>
-      <c r="P6" t="n">
-        <v>472381.6560709759</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26752,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.2387900191172</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>145.6071988424168</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5185199959772</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7024679692171</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>176.586901576166</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>113.7237431997394</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>103.5023109773825</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>126.6313418847988</v>
       </c>
       <c r="V8" t="n">
-        <v>46.00987837419132</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929059</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>36.65366253211348</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491426</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30232,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-2.561121719963939e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396482</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
@@ -31613,7 +31615,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813581</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262111</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735648</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770696</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751861</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043998</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>385.6919070110654</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>408.1301468599559</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206554</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>641.3196830252161</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38096,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632359.244324697</v>
+        <v>2625342.229432986</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>146.120371988088</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>203.6337698749963</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.915442650592</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>176.7166301627352</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>210.1990295646178</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>154.8402997532139</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>99.90991062876937</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>152.1136935036978</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>124.5928256234905</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>94.63926978364066</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>94.3220848936688</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>148.7416974947219</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.4415592848742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>47.80352821253297</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274098</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.1042018712778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>11.82150965373878</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>12.68762643336728</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.7497962645299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>225.4935394628982</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>170.5809693952293</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>152.1727539793427</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.63559668982885</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>24.01233557466645</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>255.8641756328712</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>76.59100678919627</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>277.7973062640922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>50.64057307576873</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>147.4546048156225</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>270.6187738943028</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>361.9507939159814</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>355.0052931667779</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.366837563734</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.901079302655</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1731.901079302655</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259435</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C4" t="n">
-        <v>217.9192350259435</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>217.9192350259435</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.946621408918</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.680922802168</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.680922802168</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>837.6950180125605</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>419.7312099107473</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2322.110080805221</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2322.110080805221</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>837.1179892781316</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>207.5931772786451</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2340.091574849259</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2340.091574849259</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1987.322919579145</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.857161318065</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1223.717829342253</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240419</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240419</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240419</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5382038240419</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610025</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240419</v>
+        <v>632.8541509805061</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240419</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240419</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033467</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>681.3817128053294</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.8952892852544</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5363,10 +5363,10 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1339.554774985856</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1339.554774985856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1339.554774985856</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1339.554774985856</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.137604948895</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5539,7 +5539,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3190.928350499667</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3959.296496892129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1942894808744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347409</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347409</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>985.713685310448</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>985.713685310448</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.1942894808744</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,10 +5755,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,34 +5767,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>256.0479578003566</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>256.0479578003566</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286137</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305963</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3263.786115209752</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3571.106248489713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.210845262961</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752260002</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>785.7936752260002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.1575173830407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,28 +6244,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>960.1499050525547</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>705.4654168466678</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>705.4654168466678</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>705.4654168466678</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>705.4654168466678</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3627.330715596856</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C31" t="n">
-        <v>3627.330715596856</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="D31" t="n">
-        <v>3627.330715596856</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="E31" t="n">
-        <v>3627.330715596856</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596856</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4822.838818782143</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4622.918808697696</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4399.133393487202</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4110.00475470076</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>3855.320266494873</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>3855.320266494873</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X31" t="n">
-        <v>3627.330715596856</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y31" t="n">
-        <v>3627.330715596856</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.3619233770512</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>268.3619233770512</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>268.3619233770512</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>268.3619233770512</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>121.4719758791408</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>121.4719758791408</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488384</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V34" t="n">
-        <v>898.7925182488384</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>898.7925182488384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>670.8029673508211</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>450.0103882072909</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,16 +6961,16 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>321.4716922806167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>321.4716922806167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5817447827064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>174.5817447827064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5817447827064</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X37" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1107.237827459029</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1107.237827459029</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1107.237827459029</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4093.273485435009</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>3924.337302507102</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>3774.220663094766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>3774.220663094766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596856</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W43" t="n">
-        <v>4274.921950265249</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X43" t="n">
-        <v>4274.921950265249</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>4274.921950265249</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>693.7762810288177</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>524.8400981009108</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>914.5688601723479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>914.5688601723479</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>914.5688601723479</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>914.5688601723479</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>693.7762810288177</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>285.1031356539336</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>52.4973336130526</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>158.8724419039315</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>52.49733361305243</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>392.1113620226424</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>285.1031356539331</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,25 +10427,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>31.09028268721536</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.1430940672206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>150.1172817710703</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.48045148081695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>136.7939633644736</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>213.0220289556699</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.8348570875649</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>60.7438129356791</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>48.00368395686547</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14.32081448403491</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.32875571396394</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.9014927928697</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>30.37317676570615</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>33.82823867507571</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8.440046134485101</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>235.8824252608223</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>78.25505057341465</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>15.61857850427458</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="J2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065629</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,28 +26432,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687068</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-222678.4976662656</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482788</v>
+        <v>367289.3815482786</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482786</v>
+        <v>367289.381548279</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592073</v>
+        <v>-53752.97166564204</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709755</v>
+        <v>471407.0648112538</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.0648112538</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709758</v>
+        <v>471407.064811254</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709757</v>
+        <v>471407.0648112542</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783827</v>
+        <v>294983.8456186614</v>
       </c>
       <c r="K6" t="n">
-        <v>472381.6560709757</v>
+        <v>471407.0648112538</v>
       </c>
       <c r="L6" t="n">
-        <v>472381.6560709754</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="M6" t="n">
-        <v>337580.6408371383</v>
+        <v>336606.0495774166</v>
       </c>
       <c r="N6" t="n">
-        <v>472381.6560709757</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="O6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.0648112539</v>
       </c>
       <c r="P6" t="n">
-        <v>472381.6560709755</v>
+        <v>471407.0648112538</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>267.6637980327069</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>145.6071988424168</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>129.5185199959772</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99302522630197</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>113.7237431997394</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>96.38386775507536</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>21.87414536972216</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>118.6747427233254</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>261.6704765170971</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>126.6313418847988</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>50.78177823929059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>192.2009134429222</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.561121719963939e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>595.5275127043998</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>385.6919070110654</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>408.1301468599559</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>259.5907485445772</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>725.3059354206554</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>492.1965505854578</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>641.3196830252161</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>630.4412169741155</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>299.8843243654609</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625342.229432986</v>
+        <v>2630281.492282018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>146.120371988088</v>
+        <v>320.5360847970597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7166301627352</v>
+        <v>176.7166301627354</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>339.7303543902261</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>154.8402997532139</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.759219923244</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.90991062876937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>152.1136935036978</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>174.0080053381501</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>42.98425264020252</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>94.3220848936688</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.7416974947219</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.88713826833499</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.5947476878515</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>32.89657674137691</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>12.68762643336728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766671</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>89.31984007417594</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>28.22523322473833</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.5809693952293</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>152.1727539793427</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>95.31089658769017</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>255.8641756328712</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185879</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>12.68762643336728</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>35.08819375236466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>147.4546048156225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1706059301398</v>
+        <v>118.9955446623092</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.9133108563931</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>361.9507939159814</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>361.9507939159814</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="E2" t="n">
-        <v>361.9507939159814</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="F2" t="n">
-        <v>355.0052931667779</v>
+        <v>531.1827808526078</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1117.513150920515</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,40 +4494,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
         <v>549.6273375774088</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1135.285580705511</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>724.2996759159032</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2322.110080805221</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2322.110080805221</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>1969.341425535107</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5045402329973</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5386780278486</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C8" t="n">
-        <v>214.5386780278486</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>214.5386780278486</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>214.5386780278486</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>207.5931772786451</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598701</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>279.3468541648874</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>632.8541509805061</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>404.8646000824888</v>
+        <v>500.1394333084176</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.8646000824888</v>
+        <v>279.3468541648874</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>471.5883316929529</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>302.652148765046</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>302.652148765046</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,19 +5217,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
         <v>1209.787631771461</v>
@@ -5238,13 +5238,13 @@
         <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y13" t="n">
-        <v>692.3809108364826</v>
+        <v>471.5883316929529</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277025</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341659</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706293</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5743,40 +5743,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>1209.787631771458</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>955.1031435655713</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799445</v>
+        <v>665.6859735286107</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305934</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6226,7 +6226,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6238,10 +6238,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.3977182706318</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C31" t="n">
-        <v>362.4615353427249</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D31" t="n">
-        <v>362.4615353427249</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="E31" t="n">
-        <v>362.4615353427249</v>
+        <v>340.380671875055</v>
       </c>
       <c r="F31" t="n">
-        <v>362.4615353427249</v>
+        <v>193.4907243771446</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>193.4907243771446</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>193.4907243771446</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.3977182706318</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>816.762183007535</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>816.762183007535</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7119,22 +7119,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.3696244704013</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.3696244704013</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.3696244704013</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.3696244704013</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1943027902219</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.130855347408</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W43" t="n">
-        <v>985.7136853104475</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>581.3058073983082</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>581.3058073983082</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>1336.117678709276</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050805</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229635</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.09028268721536</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>109.5468243782342</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>82.98990566424334</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>112.5244712815543</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>213.0220289556699</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>61.34209567542766</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>90.51214010776135</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.2977651118526</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.00368395686547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14.32081448403491</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.10834887658181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>30.37317676570615</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>213.0220289556699</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>113.8256346151715</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>78.25505057341465</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.9670373936882</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065629</v>
@@ -26352,10 +26352,10 @@
         <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.283664801121631e-09</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26444,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662656</v>
+        <v>-222678.4976662658</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482786</v>
+        <v>367289.3815482791</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.381548279</v>
+        <v>367289.3815482791</v>
       </c>
       <c r="E6" t="n">
-        <v>-53752.97166564204</v>
+        <v>-52875.83953189211</v>
       </c>
       <c r="F6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="G6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450047</v>
       </c>
       <c r="H6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450029</v>
       </c>
       <c r="I6" t="n">
-        <v>471407.0648112542</v>
+        <v>472284.1969450023</v>
       </c>
       <c r="J6" t="n">
-        <v>294983.8456186614</v>
+        <v>295860.9777524104</v>
       </c>
       <c r="K6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="L6" t="n">
-        <v>471407.0648112539</v>
+        <v>472284.1969450036</v>
       </c>
       <c r="M6" t="n">
-        <v>336606.0495774166</v>
+        <v>337483.1817111662</v>
       </c>
       <c r="N6" t="n">
-        <v>471407.0648112539</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="O6" t="n">
-        <v>471407.0648112539</v>
+        <v>472284.1969450036</v>
       </c>
       <c r="P6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450036</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.228540430950772e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>267.6637980327069</v>
+        <v>93.2480852237353</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>48.99302522630197</v>
+        <v>48.99302522630174</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>74.05381563056886</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.38386775507536</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.2758855348403</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>118.6747427233254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>261.6704765170971</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>77.2161621701392</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>124.2625684584253</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>192.2009134429222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730072</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734289</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
